--- a/summary-template.xlsx
+++ b/summary-template.xlsx
@@ -8,20 +8,55 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Documents/enrico-code/code-analysis/git-metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A3F71-D23E-7542-820D-C3AE0559914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF680A5-3A40-3549-A7E7-DAD5642BB9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="graphs" sheetId="2" r:id="rId1"/>
+    <sheet name="graphs-modules" sheetId="8" r:id="rId1"/>
+    <sheet name="graphs" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>% of files unchanged</t>
+  </si>
+  <si>
+    <t>% of loc in files unchanged</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,14 +82,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -67,6 +105,1573 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FEE-CE47-8861-36D06A7FA0B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1022879120"/>
+        <c:axId val="1022930608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1022879120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1022930608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1022930608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1022879120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+        <cx:lvl ptCount="0"/>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:lvl ptCount="0"/>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{22BD7D32-D73A-A346-9704-E0F6842FF113}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>churnAtDepth</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC88F22D-187E-0DC9-5AA4-AFC8A409DABF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1562100" y="965200"/>
+              <a:ext cx="8534400" cy="6718300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4395AE62-D686-ED4B-8615-CB62CE80A59A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="FileChurnReport"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,16 +1970,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD46C35D-AEF4-6B49-9357-FDDC96C4B6D8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1043BC4-8E49-C440-8EA0-96B6E546434E}">
+  <dimension ref="P5:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>COUNTIF([1]FileChurnReport!D:D,0)/COUNT([1]FileChurnReport!D:D)</f>
+        <v>0.4551689103378207</v>
+      </c>
+    </row>
+    <row r="7" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>SUMIF([1]FileChurnReport!D:D,0,[1]FileChurnReport!B:B)/SUM([1]FileChurnReport!B:B)</f>
+        <v>0.20243222123717047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>